--- a/data/data_final/data_bgt_revs.xlsx
+++ b/data/data_final/data_bgt_revs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2118" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2122" uniqueCount="115">
   <si>
     <t>Year</t>
   </si>
@@ -429,8 +429,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Frame0" displayName="Frame0" ref="A1:K2108" totalsRowShown="0">
-  <autoFilter ref="A1:K2108"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Frame0" displayName="Frame0" ref="A1:K2112" totalsRowShown="0">
+  <autoFilter ref="A1:K2112"/>
   <tableColumns count="11">
     <tableColumn id="1" name="Year" dataDxfId="0"/>
     <tableColumn id="2" name="Municipality" dataDxfId="1"/>
@@ -733,7 +733,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K2108"/>
+  <dimension ref="A1:K2112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -71352,34 +71352,34 @@
         <v>2020</v>
       </c>
       <c r="B2018" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C2018" s="2">
-        <v>108183452</v>
+        <v>19153436</v>
       </c>
       <c r="D2018" s="2">
-        <v>1890636</v>
+        <v>3624702</v>
       </c>
       <c r="E2018" s="2">
-        <v>3336248</v>
+        <v>1013496</v>
       </c>
       <c r="F2018" s="2">
-        <v>7046293</v>
+        <v>1164400</v>
       </c>
       <c r="G2018" s="2">
-        <v>1824740</v>
+        <v>472498</v>
       </c>
       <c r="H2018" s="2">
-        <v>107000</v>
+        <v>0</v>
       </c>
       <c r="I2018" s="2">
-        <v>1742</v>
+        <v>500000</v>
       </c>
       <c r="J2018" s="2">
-        <v>1988495</v>
+        <v>0</v>
       </c>
       <c r="K2018" s="2">
-        <v>124378606</v>
+        <v>25928532</v>
       </c>
     </row>
     <row r="2019" spans="1:11">
@@ -71387,34 +71387,34 @@
         <v>2020</v>
       </c>
       <c r="B2019" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C2019" s="2">
-        <v>26819207</v>
+        <v>10686193</v>
       </c>
       <c r="D2019" s="2">
-        <v>6268228</v>
+        <v>1889297</v>
       </c>
       <c r="E2019" s="2">
-        <v>1019512</v>
+        <v>156231</v>
       </c>
       <c r="F2019" s="2">
-        <v>804787</v>
+        <v>1093136</v>
       </c>
       <c r="G2019" s="2">
-        <v>430500</v>
+        <v>503816</v>
       </c>
       <c r="H2019" s="2">
-        <v>0</v>
+        <v>46500</v>
       </c>
       <c r="I2019" s="2">
-        <v>637309</v>
+        <v>405200</v>
       </c>
       <c r="J2019" s="2">
-        <v>19712</v>
+        <v>66867</v>
       </c>
       <c r="K2019" s="2">
-        <v>35999255</v>
+        <v>14847240</v>
       </c>
     </row>
     <row r="2020" spans="1:11">
@@ -71422,34 +71422,34 @@
         <v>2020</v>
       </c>
       <c r="B2020" s="3" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C2020" s="2">
-        <v>143724760</v>
+        <v>53323334</v>
       </c>
       <c r="D2020" s="2">
-        <v>3108999</v>
+        <v>1095459</v>
       </c>
       <c r="E2020" s="2">
-        <v>3175793</v>
+        <v>345000</v>
       </c>
       <c r="F2020" s="2">
-        <v>10280883</v>
+        <v>1697000</v>
       </c>
       <c r="G2020" s="2">
-        <v>3110601</v>
+        <v>978500</v>
       </c>
       <c r="H2020" s="2">
         <v>0</v>
       </c>
       <c r="I2020" s="2">
-        <v>17</v>
+        <v>926441</v>
       </c>
       <c r="J2020" s="2">
-        <v>171570</v>
+        <v>583007</v>
       </c>
       <c r="K2020" s="2">
-        <v>163572623</v>
+        <v>58948741</v>
       </c>
     </row>
     <row r="2021" spans="1:11">
@@ -71457,34 +71457,34 @@
         <v>2020</v>
       </c>
       <c r="B2021" s="3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C2021" s="2">
-        <v>125842974</v>
+        <v>23720297</v>
       </c>
       <c r="D2021" s="2">
-        <v>17204756</v>
+        <v>5564820</v>
       </c>
       <c r="E2021" s="2">
-        <v>1620000</v>
+        <v>1718846</v>
       </c>
       <c r="F2021" s="2">
-        <v>3990746</v>
+        <v>1342789</v>
       </c>
       <c r="G2021" s="2">
-        <v>5845070</v>
+        <v>725500</v>
       </c>
       <c r="H2021" s="2">
-        <v>9493578</v>
+        <v>5000</v>
       </c>
       <c r="I2021" s="2">
-        <v>2711300</v>
+        <v>2420632</v>
       </c>
       <c r="J2021" s="2">
-        <v>0</v>
+        <v>12801</v>
       </c>
       <c r="K2021" s="2">
-        <v>166708424</v>
+        <v>35510685</v>
       </c>
     </row>
     <row r="2022" spans="1:11">
@@ -71492,34 +71492,34 @@
         <v>2020</v>
       </c>
       <c r="B2022" s="3" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="C2022" s="2">
-        <v>4498688</v>
+        <v>108183452</v>
       </c>
       <c r="D2022" s="2">
-        <v>908618</v>
+        <v>1890636</v>
       </c>
       <c r="E2022" s="2">
-        <v>98324</v>
+        <v>3336248</v>
       </c>
       <c r="F2022" s="2">
-        <v>54750</v>
+        <v>7046293</v>
       </c>
       <c r="G2022" s="2">
-        <v>33850</v>
+        <v>1824740</v>
       </c>
       <c r="H2022" s="2">
-        <v>27400</v>
+        <v>107000</v>
       </c>
       <c r="I2022" s="2">
-        <v>0</v>
+        <v>1742</v>
       </c>
       <c r="J2022" s="2">
-        <v>54370</v>
+        <v>1988495</v>
       </c>
       <c r="K2022" s="2">
-        <v>5676000</v>
+        <v>124378606</v>
       </c>
     </row>
     <row r="2023" spans="1:11">
@@ -71527,34 +71527,34 @@
         <v>2020</v>
       </c>
       <c r="B2023" s="3" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="C2023" s="2">
-        <v>2955852</v>
+        <v>26819207</v>
       </c>
       <c r="D2023" s="2">
-        <v>55271</v>
+        <v>6268228</v>
       </c>
       <c r="E2023" s="2">
-        <v>168453</v>
+        <v>1019512</v>
       </c>
       <c r="F2023" s="2">
-        <v>663000</v>
+        <v>804787</v>
       </c>
       <c r="G2023" s="2">
-        <v>104975</v>
+        <v>430500</v>
       </c>
       <c r="H2023" s="2">
         <v>0</v>
       </c>
       <c r="I2023" s="2">
-        <v>22400</v>
+        <v>637309</v>
       </c>
       <c r="J2023" s="2">
-        <v>129082</v>
+        <v>19712</v>
       </c>
       <c r="K2023" s="2">
-        <v>4099033</v>
+        <v>35999255</v>
       </c>
     </row>
     <row r="2024" spans="1:11">
@@ -71562,34 +71562,34 @@
         <v>2020</v>
       </c>
       <c r="B2024" s="3" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C2024" s="2">
-        <v>5909755</v>
+        <v>143724760</v>
       </c>
       <c r="D2024" s="2">
-        <v>1032625</v>
+        <v>3108999</v>
       </c>
       <c r="E2024" s="2">
-        <v>187021</v>
+        <v>3175793</v>
       </c>
       <c r="F2024" s="2">
-        <v>120846</v>
+        <v>10280883</v>
       </c>
       <c r="G2024" s="2">
-        <v>197753</v>
+        <v>3110601</v>
       </c>
       <c r="H2024" s="2">
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="I2024" s="2">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="J2024" s="2">
-        <v>0</v>
+        <v>171570</v>
       </c>
       <c r="K2024" s="2">
-        <v>7454000</v>
+        <v>163572623</v>
       </c>
     </row>
     <row r="2025" spans="1:11">
@@ -71597,34 +71597,34 @@
         <v>2020</v>
       </c>
       <c r="B2025" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C2025" s="2">
-        <v>4003564</v>
+        <v>125842974</v>
       </c>
       <c r="D2025" s="2">
-        <v>1402560</v>
+        <v>17204756</v>
       </c>
       <c r="E2025" s="2">
-        <v>73573</v>
+        <v>1620000</v>
       </c>
       <c r="F2025" s="2">
-        <v>230162</v>
+        <v>3990746</v>
       </c>
       <c r="G2025" s="2">
-        <v>47382</v>
+        <v>5845070</v>
       </c>
       <c r="H2025" s="2">
-        <v>0</v>
+        <v>9493578</v>
       </c>
       <c r="I2025" s="2">
-        <v>50000</v>
+        <v>2711300</v>
       </c>
       <c r="J2025" s="2">
-        <v>34805</v>
+        <v>0</v>
       </c>
       <c r="K2025" s="2">
-        <v>5842046</v>
+        <v>166708424</v>
       </c>
     </row>
     <row r="2026" spans="1:11">
@@ -71632,34 +71632,34 @@
         <v>2020</v>
       </c>
       <c r="B2026" s="3" t="s">
-        <v>114</v>
+        <v>31</v>
       </c>
       <c r="C2026" s="2">
-        <v>2883408</v>
+        <v>4498688</v>
       </c>
       <c r="D2026" s="2">
-        <v>125423</v>
+        <v>908618</v>
       </c>
       <c r="E2026" s="2">
-        <v>213826</v>
+        <v>98324</v>
       </c>
       <c r="F2026" s="2">
-        <v>222457</v>
+        <v>54750</v>
       </c>
       <c r="G2026" s="2">
-        <v>51548</v>
+        <v>33850</v>
       </c>
       <c r="H2026" s="2">
-        <v>4500</v>
+        <v>27400</v>
       </c>
       <c r="I2026" s="2">
-        <v>23000</v>
+        <v>0</v>
       </c>
       <c r="J2026" s="2">
-        <v>10302</v>
+        <v>54370</v>
       </c>
       <c r="K2026" s="2">
-        <v>3534464</v>
+        <v>5676000</v>
       </c>
     </row>
     <row r="2027" spans="1:11">
@@ -71667,34 +71667,34 @@
         <v>2020</v>
       </c>
       <c r="B2027" s="3" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C2027" s="2">
-        <v>5240616</v>
+        <v>2955852</v>
       </c>
       <c r="D2027" s="2">
-        <v>645014</v>
+        <v>55271</v>
       </c>
       <c r="E2027" s="2">
-        <v>314873</v>
+        <v>168453</v>
       </c>
       <c r="F2027" s="2">
-        <v>46100</v>
+        <v>663000</v>
       </c>
       <c r="G2027" s="2">
-        <v>48880</v>
+        <v>104975</v>
       </c>
       <c r="H2027" s="2">
         <v>0</v>
       </c>
       <c r="I2027" s="2">
-        <v>0</v>
+        <v>22400</v>
       </c>
       <c r="J2027" s="2">
-        <v>55987</v>
+        <v>129082</v>
       </c>
       <c r="K2027" s="2">
-        <v>6351470</v>
+        <v>4099033</v>
       </c>
     </row>
     <row r="2028" spans="1:11">
@@ -71702,34 +71702,34 @@
         <v>2020</v>
       </c>
       <c r="B2028" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2028" s="2">
-        <v>8315976</v>
+        <v>5909755</v>
       </c>
       <c r="D2028" s="2">
-        <v>793610</v>
+        <v>1032625</v>
       </c>
       <c r="E2028" s="2">
-        <v>777545</v>
+        <v>187021</v>
       </c>
       <c r="F2028" s="2">
-        <v>1000185</v>
+        <v>120846</v>
       </c>
       <c r="G2028" s="2">
-        <v>127310</v>
+        <v>197753</v>
       </c>
       <c r="H2028" s="2">
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="I2028" s="2">
         <v>0</v>
       </c>
       <c r="J2028" s="2">
-        <v>13312</v>
+        <v>0</v>
       </c>
       <c r="K2028" s="2">
-        <v>11027938</v>
+        <v>7454000</v>
       </c>
     </row>
     <row r="2029" spans="1:11">
@@ -71737,34 +71737,34 @@
         <v>2020</v>
       </c>
       <c r="B2029" s="3" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="C2029" s="2">
-        <v>4798261</v>
+        <v>4003564</v>
       </c>
       <c r="D2029" s="2">
-        <v>217469</v>
+        <v>1402560</v>
       </c>
       <c r="E2029" s="2">
-        <v>412546</v>
+        <v>73573</v>
       </c>
       <c r="F2029" s="2">
-        <v>436988</v>
+        <v>230162</v>
       </c>
       <c r="G2029" s="2">
-        <v>312240</v>
+        <v>47382</v>
       </c>
       <c r="H2029" s="2">
         <v>0</v>
       </c>
       <c r="I2029" s="2">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="J2029" s="2">
-        <v>0</v>
+        <v>34805</v>
       </c>
       <c r="K2029" s="2">
-        <v>6177504</v>
+        <v>5842046</v>
       </c>
     </row>
     <row r="2030" spans="1:11">
@@ -71772,34 +71772,34 @@
         <v>2020</v>
       </c>
       <c r="B2030" s="3" t="s">
-        <v>50</v>
+        <v>114</v>
       </c>
       <c r="C2030" s="2">
-        <v>1303484</v>
+        <v>2883408</v>
       </c>
       <c r="D2030" s="2">
-        <v>43372</v>
+        <v>125423</v>
       </c>
       <c r="E2030" s="2">
-        <v>212020</v>
+        <v>213826</v>
       </c>
       <c r="F2030" s="2">
-        <v>82350</v>
+        <v>222457</v>
       </c>
       <c r="G2030" s="2">
-        <v>37400</v>
+        <v>51548</v>
       </c>
       <c r="H2030" s="2">
-        <v>0</v>
+        <v>4500</v>
       </c>
       <c r="I2030" s="2">
-        <v>40164</v>
+        <v>23000</v>
       </c>
       <c r="J2030" s="2">
-        <v>41850</v>
+        <v>10302</v>
       </c>
       <c r="K2030" s="2">
-        <v>1760640</v>
+        <v>3534464</v>
       </c>
     </row>
     <row r="2031" spans="1:11">
@@ -71807,22 +71807,22 @@
         <v>2020</v>
       </c>
       <c r="B2031" s="3" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="C2031" s="2">
-        <v>1529342</v>
+        <v>5240616</v>
       </c>
       <c r="D2031" s="2">
-        <v>176117</v>
+        <v>645014</v>
       </c>
       <c r="E2031" s="2">
-        <v>234554</v>
+        <v>314873</v>
       </c>
       <c r="F2031" s="2">
-        <v>33050</v>
+        <v>46100</v>
       </c>
       <c r="G2031" s="2">
-        <v>49800</v>
+        <v>48880</v>
       </c>
       <c r="H2031" s="2">
         <v>0</v>
@@ -71831,10 +71831,10 @@
         <v>0</v>
       </c>
       <c r="J2031" s="2">
-        <v>1107</v>
+        <v>55987</v>
       </c>
       <c r="K2031" s="2">
-        <v>2023970</v>
+        <v>6351470</v>
       </c>
     </row>
     <row r="2032" spans="1:11">
@@ -71842,22 +71842,22 @@
         <v>2020</v>
       </c>
       <c r="B2032" s="3" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="C2032" s="2">
-        <v>1376477</v>
+        <v>8315976</v>
       </c>
       <c r="D2032" s="2">
-        <v>34629</v>
+        <v>793610</v>
       </c>
       <c r="E2032" s="2">
-        <v>95190</v>
+        <v>777545</v>
       </c>
       <c r="F2032" s="2">
-        <v>79500</v>
+        <v>1000185</v>
       </c>
       <c r="G2032" s="2">
-        <v>6750</v>
+        <v>127310</v>
       </c>
       <c r="H2032" s="2">
         <v>0</v>
@@ -71866,10 +71866,10 @@
         <v>0</v>
       </c>
       <c r="J2032" s="2">
-        <v>13546</v>
+        <v>13312</v>
       </c>
       <c r="K2032" s="2">
-        <v>1606092</v>
+        <v>11027938</v>
       </c>
     </row>
     <row r="2033" spans="1:11">
@@ -71877,34 +71877,34 @@
         <v>2020</v>
       </c>
       <c r="B2033" s="3" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="C2033" s="2">
-        <v>14925428</v>
+        <v>4798261</v>
       </c>
       <c r="D2033" s="2">
-        <v>574123</v>
+        <v>217469</v>
       </c>
       <c r="E2033" s="2">
-        <v>1312006</v>
+        <v>412546</v>
       </c>
       <c r="F2033" s="2">
-        <v>773555</v>
+        <v>436988</v>
       </c>
       <c r="G2033" s="2">
-        <v>857057</v>
+        <v>312240</v>
       </c>
       <c r="H2033" s="2">
-        <v>15600</v>
+        <v>0</v>
       </c>
       <c r="I2033" s="2">
-        <v>301044</v>
+        <v>0</v>
       </c>
       <c r="J2033" s="2">
-        <v>36263</v>
+        <v>0</v>
       </c>
       <c r="K2033" s="2">
-        <v>18795076</v>
+        <v>6177504</v>
       </c>
     </row>
     <row r="2034" spans="1:11">
@@ -71912,34 +71912,34 @@
         <v>2020</v>
       </c>
       <c r="B2034" s="3" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="C2034" s="2">
-        <v>24180623</v>
+        <v>1303484</v>
       </c>
       <c r="D2034" s="2">
-        <v>114304</v>
+        <v>43372</v>
       </c>
       <c r="E2034" s="2">
-        <v>47064</v>
+        <v>212020</v>
       </c>
       <c r="F2034" s="2">
-        <v>898315</v>
+        <v>82350</v>
       </c>
       <c r="G2034" s="2">
-        <v>445702</v>
+        <v>37400</v>
       </c>
       <c r="H2034" s="2">
-        <v>28800</v>
+        <v>0</v>
       </c>
       <c r="I2034" s="2">
-        <v>20947</v>
+        <v>40164</v>
       </c>
       <c r="J2034" s="2">
-        <v>48939</v>
+        <v>41850</v>
       </c>
       <c r="K2034" s="2">
-        <v>25784694</v>
+        <v>1760640</v>
       </c>
     </row>
     <row r="2035" spans="1:11">
@@ -71947,34 +71947,34 @@
         <v>2020</v>
       </c>
       <c r="B2035" s="3" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C2035" s="2">
-        <v>1612895</v>
+        <v>1529342</v>
       </c>
       <c r="D2035" s="2">
-        <v>87906</v>
+        <v>176117</v>
       </c>
       <c r="E2035" s="2">
-        <v>139580</v>
+        <v>234554</v>
       </c>
       <c r="F2035" s="2">
-        <v>758084</v>
+        <v>33050</v>
       </c>
       <c r="G2035" s="2">
-        <v>98135</v>
+        <v>49800</v>
       </c>
       <c r="H2035" s="2">
         <v>0</v>
       </c>
       <c r="I2035" s="2">
-        <v>15364</v>
+        <v>0</v>
       </c>
       <c r="J2035" s="2">
-        <v>0</v>
+        <v>1107</v>
       </c>
       <c r="K2035" s="2">
-        <v>2711964</v>
+        <v>2023970</v>
       </c>
     </row>
     <row r="2036" spans="1:11">
@@ -71982,22 +71982,22 @@
         <v>2020</v>
       </c>
       <c r="B2036" s="3" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="C2036" s="2">
-        <v>24875683</v>
+        <v>1376477</v>
       </c>
       <c r="D2036" s="2">
-        <v>2683203</v>
+        <v>34629</v>
       </c>
       <c r="E2036" s="2">
-        <v>577600</v>
+        <v>95190</v>
       </c>
       <c r="F2036" s="2">
-        <v>1199531</v>
+        <v>79500</v>
       </c>
       <c r="G2036" s="2">
-        <v>632514</v>
+        <v>6750</v>
       </c>
       <c r="H2036" s="2">
         <v>0</v>
@@ -72006,10 +72006,10 @@
         <v>0</v>
       </c>
       <c r="J2036" s="2">
-        <v>71495</v>
+        <v>13546</v>
       </c>
       <c r="K2036" s="2">
-        <v>30040026</v>
+        <v>1606092</v>
       </c>
     </row>
     <row r="2037" spans="1:11">
@@ -72017,34 +72017,34 @@
         <v>2020</v>
       </c>
       <c r="B2037" s="3" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C2037" s="2">
-        <v>16492464</v>
+        <v>14925428</v>
       </c>
       <c r="D2037" s="2">
-        <v>128335</v>
+        <v>574123</v>
       </c>
       <c r="E2037" s="2">
-        <v>60000</v>
+        <v>1312006</v>
       </c>
       <c r="F2037" s="2">
-        <v>422300</v>
+        <v>773555</v>
       </c>
       <c r="G2037" s="2">
-        <v>96151</v>
+        <v>857057</v>
       </c>
       <c r="H2037" s="2">
-        <v>26500</v>
+        <v>15600</v>
       </c>
       <c r="I2037" s="2">
-        <v>1000000</v>
+        <v>301044</v>
       </c>
       <c r="J2037" s="2">
-        <v>99250</v>
+        <v>36263</v>
       </c>
       <c r="K2037" s="2">
-        <v>18325000</v>
+        <v>18795076</v>
       </c>
     </row>
     <row r="2038" spans="1:11">
@@ -72052,34 +72052,34 @@
         <v>2020</v>
       </c>
       <c r="B2038" s="3" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="C2038" s="2">
-        <v>10255924</v>
+        <v>24180623</v>
       </c>
       <c r="D2038" s="2">
-        <v>67548</v>
+        <v>114304</v>
       </c>
       <c r="E2038" s="2">
-        <v>192075</v>
+        <v>47064</v>
       </c>
       <c r="F2038" s="2">
-        <v>332400</v>
+        <v>898315</v>
       </c>
       <c r="G2038" s="2">
-        <v>447000</v>
+        <v>445702</v>
       </c>
       <c r="H2038" s="2">
-        <v>27750</v>
+        <v>28800</v>
       </c>
       <c r="I2038" s="2">
-        <v>0</v>
+        <v>20947</v>
       </c>
       <c r="J2038" s="2">
-        <v>62888</v>
+        <v>48939</v>
       </c>
       <c r="K2038" s="2">
-        <v>11385585</v>
+        <v>25784694</v>
       </c>
     </row>
     <row r="2039" spans="1:11">
@@ -72087,34 +72087,34 @@
         <v>2020</v>
       </c>
       <c r="B2039" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C2039" s="2">
-        <v>4144989</v>
+        <v>1612895</v>
       </c>
       <c r="D2039" s="2">
-        <v>64748</v>
+        <v>87906</v>
       </c>
       <c r="E2039" s="2">
-        <v>127558</v>
+        <v>139580</v>
       </c>
       <c r="F2039" s="2">
-        <v>132835</v>
+        <v>758084</v>
       </c>
       <c r="G2039" s="2">
-        <v>529080</v>
+        <v>98135</v>
       </c>
       <c r="H2039" s="2">
-        <v>99585</v>
+        <v>0</v>
       </c>
       <c r="I2039" s="2">
-        <v>50000</v>
+        <v>15364</v>
       </c>
       <c r="J2039" s="2">
-        <v>863</v>
+        <v>0</v>
       </c>
       <c r="K2039" s="2">
-        <v>5149658</v>
+        <v>2711964</v>
       </c>
     </row>
     <row r="2040" spans="1:11">
@@ -72122,34 +72122,34 @@
         <v>2020</v>
       </c>
       <c r="B2040" s="3" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="C2040" s="2">
-        <v>1201898</v>
+        <v>24875683</v>
       </c>
       <c r="D2040" s="2">
-        <v>334202</v>
+        <v>2683203</v>
       </c>
       <c r="E2040" s="2">
-        <v>161419</v>
+        <v>577600</v>
       </c>
       <c r="F2040" s="2">
-        <v>68100</v>
+        <v>1199531</v>
       </c>
       <c r="G2040" s="2">
-        <v>96296</v>
+        <v>632514</v>
       </c>
       <c r="H2040" s="2">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="I2040" s="2">
-        <v>28000</v>
+        <v>0</v>
       </c>
       <c r="J2040" s="2">
-        <v>0</v>
+        <v>71495</v>
       </c>
       <c r="K2040" s="2">
-        <v>1893915</v>
+        <v>30040026</v>
       </c>
     </row>
     <row r="2041" spans="1:11">
@@ -72157,34 +72157,34 @@
         <v>2020</v>
       </c>
       <c r="B2041" s="3" t="s">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="C2041" s="2">
-        <v>1975650</v>
+        <v>16492464</v>
       </c>
       <c r="D2041" s="2">
-        <v>438307</v>
+        <v>128335</v>
       </c>
       <c r="E2041" s="2">
-        <v>147546</v>
+        <v>60000</v>
       </c>
       <c r="F2041" s="2">
-        <v>78920</v>
+        <v>422300</v>
       </c>
       <c r="G2041" s="2">
-        <v>98204</v>
+        <v>96151</v>
       </c>
       <c r="H2041" s="2">
-        <v>47155</v>
+        <v>26500</v>
       </c>
       <c r="I2041" s="2">
-        <v>279972</v>
+        <v>1000000</v>
       </c>
       <c r="J2041" s="2">
-        <v>120512</v>
+        <v>99250</v>
       </c>
       <c r="K2041" s="2">
-        <v>3186266</v>
+        <v>18325000</v>
       </c>
     </row>
     <row r="2042" spans="1:11">
@@ -72192,34 +72192,34 @@
         <v>2020</v>
       </c>
       <c r="B2042" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2042" s="2">
-        <v>10585231</v>
+        <v>10255924</v>
       </c>
       <c r="D2042" s="2">
-        <v>591983</v>
+        <v>67548</v>
       </c>
       <c r="E2042" s="2">
-        <v>392293</v>
+        <v>192075</v>
       </c>
       <c r="F2042" s="2">
-        <v>588000</v>
+        <v>332400</v>
       </c>
       <c r="G2042" s="2">
-        <v>212000</v>
+        <v>447000</v>
       </c>
       <c r="H2042" s="2">
-        <v>0</v>
+        <v>27750</v>
       </c>
       <c r="I2042" s="2">
-        <v>507500</v>
+        <v>0</v>
       </c>
       <c r="J2042" s="2">
-        <v>193228</v>
+        <v>62888</v>
       </c>
       <c r="K2042" s="2">
-        <v>13070235</v>
+        <v>11385585</v>
       </c>
     </row>
     <row r="2043" spans="1:11">
@@ -72227,34 +72227,34 @@
         <v>2020</v>
       </c>
       <c r="B2043" s="3" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="C2043" s="2">
-        <v>3720684</v>
+        <v>4144989</v>
       </c>
       <c r="D2043" s="2">
-        <v>449201</v>
+        <v>64748</v>
       </c>
       <c r="E2043" s="2">
-        <v>166373</v>
+        <v>127558</v>
       </c>
       <c r="F2043" s="2">
-        <v>553770</v>
+        <v>132835</v>
       </c>
       <c r="G2043" s="2">
-        <v>33300</v>
+        <v>529080</v>
       </c>
       <c r="H2043" s="2">
-        <v>0</v>
+        <v>99585</v>
       </c>
       <c r="I2043" s="2">
-        <v>285000</v>
+        <v>50000</v>
       </c>
       <c r="J2043" s="2">
-        <v>10376</v>
+        <v>863</v>
       </c>
       <c r="K2043" s="2">
-        <v>5218704</v>
+        <v>5149658</v>
       </c>
     </row>
     <row r="2044" spans="1:11">
@@ -72262,34 +72262,34 @@
         <v>2020</v>
       </c>
       <c r="B2044" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C2044" s="2">
-        <v>1949410</v>
+        <v>1201898</v>
       </c>
       <c r="D2044" s="2">
-        <v>128374</v>
+        <v>334202</v>
       </c>
       <c r="E2044" s="2">
-        <v>156837</v>
+        <v>161419</v>
       </c>
       <c r="F2044" s="2">
+        <v>68100</v>
+      </c>
+      <c r="G2044" s="2">
+        <v>96296</v>
+      </c>
+      <c r="H2044" s="2">
         <v>4000</v>
       </c>
-      <c r="G2044" s="2">
-        <v>29600</v>
-      </c>
-      <c r="H2044" s="2">
-        <v>650</v>
-      </c>
       <c r="I2044" s="2">
-        <v>0</v>
+        <v>28000</v>
       </c>
       <c r="J2044" s="2">
-        <v>97303</v>
+        <v>0</v>
       </c>
       <c r="K2044" s="2">
-        <v>2366174</v>
+        <v>1893915</v>
       </c>
     </row>
     <row r="2045" spans="1:11">
@@ -72297,34 +72297,34 @@
         <v>2020</v>
       </c>
       <c r="B2045" s="3" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="C2045" s="2">
-        <v>5402445</v>
+        <v>1975650</v>
       </c>
       <c r="D2045" s="2">
-        <v>1608894</v>
+        <v>438307</v>
       </c>
       <c r="E2045" s="2">
-        <v>224617</v>
+        <v>147546</v>
       </c>
       <c r="F2045" s="2">
-        <v>736230</v>
+        <v>78920</v>
       </c>
       <c r="G2045" s="2">
-        <v>220570</v>
+        <v>98204</v>
       </c>
       <c r="H2045" s="2">
-        <v>4200</v>
+        <v>47155</v>
       </c>
       <c r="I2045" s="2">
-        <v>923011</v>
+        <v>279972</v>
       </c>
       <c r="J2045" s="2">
-        <v>280156</v>
+        <v>120512</v>
       </c>
       <c r="K2045" s="2">
-        <v>9400123</v>
+        <v>3186266</v>
       </c>
     </row>
     <row r="2046" spans="1:11">
@@ -72332,34 +72332,34 @@
         <v>2020</v>
       </c>
       <c r="B2046" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C2046" s="2">
-        <v>5418706</v>
+        <v>10585231</v>
       </c>
       <c r="D2046" s="2">
-        <v>572827</v>
+        <v>591983</v>
       </c>
       <c r="E2046" s="2">
-        <v>471985</v>
+        <v>392293</v>
       </c>
       <c r="F2046" s="2">
-        <v>352500</v>
+        <v>588000</v>
       </c>
       <c r="G2046" s="2">
-        <v>85750</v>
+        <v>212000</v>
       </c>
       <c r="H2046" s="2">
         <v>0</v>
       </c>
       <c r="I2046" s="2">
-        <v>376307</v>
+        <v>507500</v>
       </c>
       <c r="J2046" s="2">
-        <v>1197</v>
+        <v>193228</v>
       </c>
       <c r="K2046" s="2">
-        <v>7279272</v>
+        <v>13070235</v>
       </c>
     </row>
     <row r="2047" spans="1:11">
@@ -72367,34 +72367,34 @@
         <v>2020</v>
       </c>
       <c r="B2047" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C2047" s="2">
-        <v>7472215</v>
+        <v>3720684</v>
       </c>
       <c r="D2047" s="2">
-        <v>855370</v>
+        <v>449201</v>
       </c>
       <c r="E2047" s="2">
-        <v>641965</v>
+        <v>166373</v>
       </c>
       <c r="F2047" s="2">
-        <v>958400</v>
+        <v>553770</v>
       </c>
       <c r="G2047" s="2">
-        <v>158300</v>
+        <v>33300</v>
       </c>
       <c r="H2047" s="2">
         <v>0</v>
       </c>
       <c r="I2047" s="2">
-        <v>114740</v>
+        <v>285000</v>
       </c>
       <c r="J2047" s="2">
-        <v>0</v>
+        <v>10376</v>
       </c>
       <c r="K2047" s="2">
-        <v>10200990</v>
+        <v>5218704</v>
       </c>
     </row>
     <row r="2048" spans="1:11">
@@ -72402,34 +72402,34 @@
         <v>2020</v>
       </c>
       <c r="B2048" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C2048" s="2">
-        <v>464367</v>
+        <v>1949410</v>
       </c>
       <c r="D2048" s="2">
-        <v>4917</v>
+        <v>128374</v>
       </c>
       <c r="E2048" s="2">
-        <v>20020</v>
+        <v>156837</v>
       </c>
       <c r="F2048" s="2">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="G2048" s="2">
-        <v>46100</v>
+        <v>29600</v>
       </c>
       <c r="H2048" s="2">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="I2048" s="2">
         <v>0</v>
       </c>
       <c r="J2048" s="2">
-        <v>35308</v>
+        <v>97303</v>
       </c>
       <c r="K2048" s="2">
-        <v>572712</v>
+        <v>2366174</v>
       </c>
     </row>
     <row r="2049" spans="1:11">
@@ -72437,34 +72437,34 @@
         <v>2020</v>
       </c>
       <c r="B2049" s="3" t="s">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="C2049" s="2">
-        <v>123052</v>
+        <v>5402445</v>
       </c>
       <c r="D2049" s="2">
-        <v>105851</v>
+        <v>1608894</v>
       </c>
       <c r="E2049" s="2">
-        <v>0</v>
+        <v>224617</v>
       </c>
       <c r="F2049" s="2">
-        <v>200</v>
+        <v>736230</v>
       </c>
       <c r="G2049" s="2">
-        <v>0</v>
+        <v>220570</v>
       </c>
       <c r="H2049" s="2">
-        <v>0</v>
+        <v>4200</v>
       </c>
       <c r="I2049" s="2">
-        <v>0</v>
+        <v>923011</v>
       </c>
       <c r="J2049" s="2">
-        <v>30195</v>
+        <v>280156</v>
       </c>
       <c r="K2049" s="2">
-        <v>259298</v>
+        <v>9400123</v>
       </c>
     </row>
     <row r="2050" spans="1:11">
@@ -72472,34 +72472,34 @@
         <v>2020</v>
       </c>
       <c r="B2050" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C2050" s="2">
-        <v>3332804</v>
+        <v>5418706</v>
       </c>
       <c r="D2050" s="2">
-        <v>290668</v>
+        <v>572827</v>
       </c>
       <c r="E2050" s="2">
-        <v>1454</v>
+        <v>471985</v>
       </c>
       <c r="F2050" s="2">
-        <v>76000</v>
+        <v>352500</v>
       </c>
       <c r="G2050" s="2">
-        <v>164874</v>
+        <v>85750</v>
       </c>
       <c r="H2050" s="2">
         <v>0</v>
       </c>
       <c r="I2050" s="2">
-        <v>61126</v>
+        <v>376307</v>
       </c>
       <c r="J2050" s="2">
-        <v>222</v>
+        <v>1197</v>
       </c>
       <c r="K2050" s="2">
-        <v>3927148</v>
+        <v>7279272</v>
       </c>
     </row>
     <row r="2051" spans="1:11">
@@ -72507,34 +72507,34 @@
         <v>2020</v>
       </c>
       <c r="B2051" s="3" t="s">
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="C2051" s="2">
-        <v>1460957</v>
+        <v>7472215</v>
       </c>
       <c r="D2051" s="2">
-        <v>110900</v>
+        <v>855370</v>
       </c>
       <c r="E2051" s="2">
-        <v>161131</v>
+        <v>641965</v>
       </c>
       <c r="F2051" s="2">
-        <v>100000</v>
+        <v>958400</v>
       </c>
       <c r="G2051" s="2">
-        <v>152322</v>
+        <v>158300</v>
       </c>
       <c r="H2051" s="2">
         <v>0</v>
       </c>
       <c r="I2051" s="2">
-        <v>0</v>
+        <v>114740</v>
       </c>
       <c r="J2051" s="2">
-        <v>10010</v>
+        <v>0</v>
       </c>
       <c r="K2051" s="2">
-        <v>1995320</v>
+        <v>10200990</v>
       </c>
     </row>
     <row r="2052" spans="1:11">
@@ -72542,34 +72542,34 @@
         <v>2020</v>
       </c>
       <c r="B2052" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C2052" s="2">
-        <v>1072552</v>
+        <v>464367</v>
       </c>
       <c r="D2052" s="2">
-        <v>164334</v>
+        <v>4917</v>
       </c>
       <c r="E2052" s="2">
-        <v>59210</v>
+        <v>20020</v>
       </c>
       <c r="F2052" s="2">
-        <v>16500</v>
+        <v>2000</v>
       </c>
       <c r="G2052" s="2">
-        <v>15850</v>
+        <v>46100</v>
       </c>
       <c r="H2052" s="2">
-        <v>13500</v>
+        <v>0</v>
       </c>
       <c r="I2052" s="2">
-        <v>85000</v>
+        <v>0</v>
       </c>
       <c r="J2052" s="2">
-        <v>14514</v>
+        <v>35308</v>
       </c>
       <c r="K2052" s="2">
-        <v>1441460</v>
+        <v>572712</v>
       </c>
     </row>
     <row r="2053" spans="1:11">
@@ -72577,34 +72577,34 @@
         <v>2020</v>
       </c>
       <c r="B2053" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C2053" s="2">
-        <v>321895</v>
+        <v>123052</v>
       </c>
       <c r="D2053" s="2">
-        <v>102239</v>
+        <v>105851</v>
       </c>
       <c r="E2053" s="2">
-        <v>37592</v>
+        <v>0</v>
       </c>
       <c r="F2053" s="2">
-        <v>9750</v>
+        <v>200</v>
       </c>
       <c r="G2053" s="2">
-        <v>40600</v>
+        <v>0</v>
       </c>
       <c r="H2053" s="2">
-        <v>6755</v>
+        <v>0</v>
       </c>
       <c r="I2053" s="2">
         <v>0</v>
       </c>
       <c r="J2053" s="2">
-        <v>0</v>
+        <v>30195</v>
       </c>
       <c r="K2053" s="2">
-        <v>518831</v>
+        <v>259298</v>
       </c>
     </row>
     <row r="2054" spans="1:11">
@@ -72612,34 +72612,34 @@
         <v>2020</v>
       </c>
       <c r="B2054" s="3" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C2054" s="2">
-        <v>4603552</v>
+        <v>3332804</v>
       </c>
       <c r="D2054" s="2">
-        <v>345656</v>
+        <v>290668</v>
       </c>
       <c r="E2054" s="2">
-        <v>36380</v>
+        <v>1454</v>
       </c>
       <c r="F2054" s="2">
-        <v>87700</v>
+        <v>76000</v>
       </c>
       <c r="G2054" s="2">
-        <v>27700</v>
+        <v>164874</v>
       </c>
       <c r="H2054" s="2">
-        <v>4500</v>
+        <v>0</v>
       </c>
       <c r="I2054" s="2">
-        <v>0</v>
+        <v>61126</v>
       </c>
       <c r="J2054" s="2">
-        <v>0</v>
+        <v>222</v>
       </c>
       <c r="K2054" s="2">
-        <v>5105488</v>
+        <v>3927148</v>
       </c>
     </row>
     <row r="2055" spans="1:11">
@@ -72647,34 +72647,34 @@
         <v>2020</v>
       </c>
       <c r="B2055" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C2055" s="2">
-        <v>891948</v>
+        <v>1460957</v>
       </c>
       <c r="D2055" s="2">
-        <v>199976</v>
+        <v>110900</v>
       </c>
       <c r="E2055" s="2">
-        <v>143619</v>
+        <v>161131</v>
       </c>
       <c r="F2055" s="2">
-        <v>82120</v>
+        <v>100000</v>
       </c>
       <c r="G2055" s="2">
-        <v>43700</v>
+        <v>152322</v>
       </c>
       <c r="H2055" s="2">
         <v>0</v>
       </c>
       <c r="I2055" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2055" s="2">
-        <v>23474</v>
+        <v>10010</v>
       </c>
       <c r="K2055" s="2">
-        <v>1384838</v>
+        <v>1995320</v>
       </c>
     </row>
     <row r="2056" spans="1:11">
@@ -72682,34 +72682,34 @@
         <v>2020</v>
       </c>
       <c r="B2056" s="3" t="s">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="C2056" s="2">
-        <v>932916</v>
+        <v>1072552</v>
       </c>
       <c r="D2056" s="2">
-        <v>270935</v>
+        <v>164334</v>
       </c>
       <c r="E2056" s="2">
-        <v>147396</v>
+        <v>59210</v>
       </c>
       <c r="F2056" s="2">
-        <v>112700</v>
+        <v>16500</v>
       </c>
       <c r="G2056" s="2">
-        <v>14000</v>
+        <v>15850</v>
       </c>
       <c r="H2056" s="2">
-        <v>8600</v>
+        <v>13500</v>
       </c>
       <c r="I2056" s="2">
-        <v>5000</v>
+        <v>85000</v>
       </c>
       <c r="J2056" s="2">
-        <v>0</v>
+        <v>14514</v>
       </c>
       <c r="K2056" s="2">
-        <v>1491547</v>
+        <v>1441460</v>
       </c>
     </row>
     <row r="2057" spans="1:11">
@@ -72717,25 +72717,25 @@
         <v>2020</v>
       </c>
       <c r="B2057" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C2057" s="2">
-        <v>700122</v>
+        <v>321895</v>
       </c>
       <c r="D2057" s="2">
-        <v>208772</v>
+        <v>102239</v>
       </c>
       <c r="E2057" s="2">
-        <v>212364</v>
+        <v>37592</v>
       </c>
       <c r="F2057" s="2">
-        <v>0</v>
+        <v>9750</v>
       </c>
       <c r="G2057" s="2">
-        <v>10500</v>
+        <v>40600</v>
       </c>
       <c r="H2057" s="2">
-        <v>0</v>
+        <v>6755</v>
       </c>
       <c r="I2057" s="2">
         <v>0</v>
@@ -72744,7 +72744,7 @@
         <v>0</v>
       </c>
       <c r="K2057" s="2">
-        <v>1131758</v>
+        <v>518831</v>
       </c>
     </row>
     <row r="2058" spans="1:11">
@@ -72752,34 +72752,34 @@
         <v>2020</v>
       </c>
       <c r="B2058" s="3" t="s">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="C2058" s="2">
-        <v>1029235</v>
+        <v>4603552</v>
       </c>
       <c r="D2058" s="2">
-        <v>752</v>
+        <v>345656</v>
       </c>
       <c r="E2058" s="2">
-        <v>10911</v>
+        <v>36380</v>
       </c>
       <c r="F2058" s="2">
-        <v>0</v>
+        <v>87700</v>
       </c>
       <c r="G2058" s="2">
-        <v>9328</v>
+        <v>27700</v>
       </c>
       <c r="H2058" s="2">
-        <v>0</v>
+        <v>4500</v>
       </c>
       <c r="I2058" s="2">
         <v>0</v>
       </c>
       <c r="J2058" s="2">
-        <v>29898</v>
+        <v>0</v>
       </c>
       <c r="K2058" s="2">
-        <v>1080124</v>
+        <v>5105488</v>
       </c>
     </row>
     <row r="2059" spans="1:11">
@@ -72787,34 +72787,34 @@
         <v>2020</v>
       </c>
       <c r="B2059" s="3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C2059" s="2">
-        <v>195287</v>
+        <v>891948</v>
       </c>
       <c r="D2059" s="2">
-        <v>96202</v>
+        <v>199976</v>
       </c>
       <c r="E2059" s="2">
-        <v>66066</v>
+        <v>143619</v>
       </c>
       <c r="F2059" s="2">
-        <v>0</v>
+        <v>82120</v>
       </c>
       <c r="G2059" s="2">
-        <v>0</v>
+        <v>43700</v>
       </c>
       <c r="H2059" s="2">
         <v>0</v>
       </c>
       <c r="I2059" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2059" s="2">
-        <v>798</v>
+        <v>23474</v>
       </c>
       <c r="K2059" s="2">
-        <v>358353</v>
+        <v>1384838</v>
       </c>
     </row>
     <row r="2060" spans="1:11">
@@ -72822,34 +72822,34 @@
         <v>2020</v>
       </c>
       <c r="B2060" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C2060" s="2">
-        <v>2817898</v>
+        <v>932916</v>
       </c>
       <c r="D2060" s="2">
-        <v>200933</v>
+        <v>270935</v>
       </c>
       <c r="E2060" s="2">
-        <v>100706</v>
+        <v>147396</v>
       </c>
       <c r="F2060" s="2">
-        <v>429750</v>
+        <v>112700</v>
       </c>
       <c r="G2060" s="2">
-        <v>46750</v>
+        <v>14000</v>
       </c>
       <c r="H2060" s="2">
-        <v>0</v>
+        <v>8600</v>
       </c>
       <c r="I2060" s="2">
-        <v>132600</v>
+        <v>5000</v>
       </c>
       <c r="J2060" s="2">
         <v>0</v>
       </c>
       <c r="K2060" s="2">
-        <v>3728637</v>
+        <v>1491547</v>
       </c>
     </row>
     <row r="2061" spans="1:11">
@@ -72857,22 +72857,22 @@
         <v>2020</v>
       </c>
       <c r="B2061" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C2061" s="2">
-        <v>520618</v>
+        <v>700122</v>
       </c>
       <c r="D2061" s="2">
-        <v>34800</v>
+        <v>208772</v>
       </c>
       <c r="E2061" s="2">
-        <v>97698</v>
+        <v>212364</v>
       </c>
       <c r="F2061" s="2">
-        <v>14000</v>
+        <v>0</v>
       </c>
       <c r="G2061" s="2">
-        <v>4000</v>
+        <v>10500</v>
       </c>
       <c r="H2061" s="2">
         <v>0</v>
@@ -72881,10 +72881,10 @@
         <v>0</v>
       </c>
       <c r="J2061" s="2">
-        <v>64100</v>
+        <v>0</v>
       </c>
       <c r="K2061" s="2">
-        <v>735216</v>
+        <v>1131758</v>
       </c>
     </row>
     <row r="2062" spans="1:11">
@@ -72892,34 +72892,34 @@
         <v>2020</v>
       </c>
       <c r="B2062" s="3" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="C2062" s="2">
-        <v>1277895</v>
+        <v>1029235</v>
       </c>
       <c r="D2062" s="2">
-        <v>98132</v>
+        <v>752</v>
       </c>
       <c r="E2062" s="2">
-        <v>138171</v>
+        <v>10911</v>
       </c>
       <c r="F2062" s="2">
         <v>0</v>
       </c>
       <c r="G2062" s="2">
-        <v>47950</v>
+        <v>9328</v>
       </c>
       <c r="H2062" s="2">
         <v>0</v>
       </c>
       <c r="I2062" s="2">
-        <v>5177</v>
+        <v>0</v>
       </c>
       <c r="J2062" s="2">
-        <v>17871</v>
+        <v>29898</v>
       </c>
       <c r="K2062" s="2">
-        <v>1585196</v>
+        <v>1080124</v>
       </c>
     </row>
     <row r="2063" spans="1:11">
@@ -72927,22 +72927,22 @@
         <v>2020</v>
       </c>
       <c r="B2063" s="3" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="C2063" s="2">
-        <v>963249</v>
+        <v>195287</v>
       </c>
       <c r="D2063" s="2">
-        <v>334810</v>
+        <v>96202</v>
       </c>
       <c r="E2063" s="2">
-        <v>143147</v>
+        <v>66066</v>
       </c>
       <c r="F2063" s="2">
-        <v>24000</v>
+        <v>0</v>
       </c>
       <c r="G2063" s="2">
-        <v>50911</v>
+        <v>0</v>
       </c>
       <c r="H2063" s="2">
         <v>0</v>
@@ -72951,10 +72951,10 @@
         <v>0</v>
       </c>
       <c r="J2063" s="2">
-        <v>59217</v>
+        <v>798</v>
       </c>
       <c r="K2063" s="2">
-        <v>1575334</v>
+        <v>358353</v>
       </c>
     </row>
     <row r="2064" spans="1:11">
@@ -72962,34 +72962,34 @@
         <v>2020</v>
       </c>
       <c r="B2064" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C2064" s="2">
-        <v>881673</v>
+        <v>2817898</v>
       </c>
       <c r="D2064" s="2">
-        <v>219992</v>
+        <v>200933</v>
       </c>
       <c r="E2064" s="2">
-        <v>35642</v>
+        <v>100706</v>
       </c>
       <c r="F2064" s="2">
-        <v>67700</v>
+        <v>429750</v>
       </c>
       <c r="G2064" s="2">
-        <v>17396</v>
+        <v>46750</v>
       </c>
       <c r="H2064" s="2">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="I2064" s="2">
-        <v>25000</v>
+        <v>132600</v>
       </c>
       <c r="J2064" s="2">
         <v>0</v>
       </c>
       <c r="K2064" s="2">
-        <v>1248903</v>
+        <v>3728637</v>
       </c>
     </row>
     <row r="2065" spans="1:11">
@@ -72997,34 +72997,34 @@
         <v>2020</v>
       </c>
       <c r="B2065" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C2065" s="2">
-        <v>939646</v>
+        <v>520618</v>
       </c>
       <c r="D2065" s="2">
-        <v>91371</v>
+        <v>34800</v>
       </c>
       <c r="E2065" s="2">
-        <v>65984</v>
+        <v>97698</v>
       </c>
       <c r="F2065" s="2">
-        <v>0</v>
+        <v>14000</v>
       </c>
       <c r="G2065" s="2">
-        <v>7975</v>
+        <v>4000</v>
       </c>
       <c r="H2065" s="2">
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="I2065" s="2">
-        <v>43011</v>
+        <v>0</v>
       </c>
       <c r="J2065" s="2">
-        <v>179134</v>
+        <v>64100</v>
       </c>
       <c r="K2065" s="2">
-        <v>1333121</v>
+        <v>735216</v>
       </c>
     </row>
     <row r="2066" spans="1:11">
@@ -73032,34 +73032,34 @@
         <v>2020</v>
       </c>
       <c r="B2066" s="3" t="s">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="C2066" s="2">
-        <v>702250</v>
+        <v>1277895</v>
       </c>
       <c r="D2066" s="2">
-        <v>4417</v>
+        <v>98132</v>
       </c>
       <c r="E2066" s="2">
-        <v>150370</v>
+        <v>138171</v>
       </c>
       <c r="F2066" s="2">
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="G2066" s="2">
-        <v>6036</v>
+        <v>47950</v>
       </c>
       <c r="H2066" s="2">
         <v>0</v>
       </c>
       <c r="I2066" s="2">
-        <v>0</v>
+        <v>5177</v>
       </c>
       <c r="J2066" s="2">
-        <v>1322</v>
+        <v>17871</v>
       </c>
       <c r="K2066" s="2">
-        <v>870395</v>
+        <v>1585196</v>
       </c>
     </row>
     <row r="2067" spans="1:11">
@@ -73067,34 +73067,34 @@
         <v>2020</v>
       </c>
       <c r="B2067" s="3" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C2067" s="2">
-        <v>1072353</v>
+        <v>963249</v>
       </c>
       <c r="D2067" s="2">
-        <v>394022</v>
+        <v>334810</v>
       </c>
       <c r="E2067" s="2">
-        <v>87495</v>
+        <v>143147</v>
       </c>
       <c r="F2067" s="2">
-        <v>0</v>
+        <v>24000</v>
       </c>
       <c r="G2067" s="2">
-        <v>9091</v>
+        <v>50911</v>
       </c>
       <c r="H2067" s="2">
         <v>0</v>
       </c>
       <c r="I2067" s="2">
-        <v>9299</v>
+        <v>0</v>
       </c>
       <c r="J2067" s="2">
-        <v>10025</v>
+        <v>59217</v>
       </c>
       <c r="K2067" s="2">
-        <v>1582285</v>
+        <v>1575334</v>
       </c>
     </row>
     <row r="2068" spans="1:11">
@@ -73102,34 +73102,34 @@
         <v>2020</v>
       </c>
       <c r="B2068" s="3" t="s">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="C2068" s="2">
-        <v>564416</v>
+        <v>881673</v>
       </c>
       <c r="D2068" s="2">
-        <v>73409</v>
+        <v>219992</v>
       </c>
       <c r="E2068" s="2">
-        <v>209938</v>
+        <v>35642</v>
       </c>
       <c r="F2068" s="2">
-        <v>0</v>
+        <v>67700</v>
       </c>
       <c r="G2068" s="2">
-        <v>48095</v>
+        <v>17396</v>
       </c>
       <c r="H2068" s="2">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="I2068" s="2">
-        <v>34814</v>
+        <v>25000</v>
       </c>
       <c r="J2068" s="2">
         <v>0</v>
       </c>
       <c r="K2068" s="2">
-        <v>930672</v>
+        <v>1248903</v>
       </c>
     </row>
     <row r="2069" spans="1:11">
@@ -73137,34 +73137,34 @@
         <v>2020</v>
       </c>
       <c r="B2069" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C2069" s="2">
-        <v>909482</v>
+        <v>939646</v>
       </c>
       <c r="D2069" s="2">
-        <v>2438</v>
+        <v>91371</v>
       </c>
       <c r="E2069" s="2">
-        <v>46520</v>
+        <v>65984</v>
       </c>
       <c r="F2069" s="2">
         <v>0</v>
       </c>
       <c r="G2069" s="2">
-        <v>12400</v>
+        <v>7975</v>
       </c>
       <c r="H2069" s="2">
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="I2069" s="2">
-        <v>50000</v>
+        <v>43011</v>
       </c>
       <c r="J2069" s="2">
-        <v>60588</v>
+        <v>179134</v>
       </c>
       <c r="K2069" s="2">
-        <v>1081428</v>
+        <v>1333121</v>
       </c>
     </row>
     <row r="2070" spans="1:11">
@@ -73172,34 +73172,34 @@
         <v>2020</v>
       </c>
       <c r="B2070" s="3" t="s">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="C2070" s="2">
-        <v>2581194</v>
+        <v>702250</v>
       </c>
       <c r="D2070" s="2">
-        <v>275402</v>
+        <v>4417</v>
       </c>
       <c r="E2070" s="2">
-        <v>0</v>
+        <v>150370</v>
       </c>
       <c r="F2070" s="2">
-        <v>46550</v>
+        <v>6000</v>
       </c>
       <c r="G2070" s="2">
-        <v>15125</v>
+        <v>6036</v>
       </c>
       <c r="H2070" s="2">
-        <v>22000</v>
+        <v>0</v>
       </c>
       <c r="I2070" s="2">
         <v>0</v>
       </c>
       <c r="J2070" s="2">
-        <v>46548</v>
+        <v>1322</v>
       </c>
       <c r="K2070" s="2">
-        <v>2986819</v>
+        <v>870395</v>
       </c>
     </row>
     <row r="2071" spans="1:11">
@@ -73207,34 +73207,34 @@
         <v>2020</v>
       </c>
       <c r="B2071" s="3" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="C2071" s="2">
-        <v>552864</v>
+        <v>1072353</v>
       </c>
       <c r="D2071" s="2">
-        <v>445807</v>
+        <v>394022</v>
       </c>
       <c r="E2071" s="2">
-        <v>178898</v>
+        <v>87495</v>
       </c>
       <c r="F2071" s="2">
-        <v>5982</v>
+        <v>0</v>
       </c>
       <c r="G2071" s="2">
-        <v>6930</v>
+        <v>9091</v>
       </c>
       <c r="H2071" s="2">
         <v>0</v>
       </c>
       <c r="I2071" s="2">
-        <v>2900</v>
+        <v>9299</v>
       </c>
       <c r="J2071" s="2">
-        <v>2048</v>
+        <v>10025</v>
       </c>
       <c r="K2071" s="2">
-        <v>1195429</v>
+        <v>1582285</v>
       </c>
     </row>
     <row r="2072" spans="1:11">
@@ -73242,34 +73242,34 @@
         <v>2020</v>
       </c>
       <c r="B2072" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C2072" s="2">
-        <v>274358</v>
+        <v>564416</v>
       </c>
       <c r="D2072" s="2">
-        <v>42490</v>
+        <v>73409</v>
       </c>
       <c r="E2072" s="2">
-        <v>34857</v>
+        <v>209938</v>
       </c>
       <c r="F2072" s="2">
         <v>0</v>
       </c>
       <c r="G2072" s="2">
-        <v>13410</v>
+        <v>48095</v>
       </c>
       <c r="H2072" s="2">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="I2072" s="2">
-        <v>0</v>
+        <v>34814</v>
       </c>
       <c r="J2072" s="2">
-        <v>23090</v>
+        <v>0</v>
       </c>
       <c r="K2072" s="2">
-        <v>389955</v>
+        <v>930672</v>
       </c>
     </row>
     <row r="2073" spans="1:11">
@@ -73277,34 +73277,34 @@
         <v>2020</v>
       </c>
       <c r="B2073" s="3" t="s">
-        <v>51</v>
+        <v>88</v>
       </c>
       <c r="C2073" s="2">
-        <v>1164914</v>
+        <v>909482</v>
       </c>
       <c r="D2073" s="2">
-        <v>259194</v>
+        <v>2438</v>
       </c>
       <c r="E2073" s="2">
-        <v>94631</v>
+        <v>46520</v>
       </c>
       <c r="F2073" s="2">
-        <v>102500</v>
+        <v>0</v>
       </c>
       <c r="G2073" s="2">
-        <v>3200</v>
+        <v>12400</v>
       </c>
       <c r="H2073" s="2">
         <v>0</v>
       </c>
       <c r="I2073" s="2">
-        <v>114658</v>
+        <v>50000</v>
       </c>
       <c r="J2073" s="2">
-        <v>76823</v>
+        <v>60588</v>
       </c>
       <c r="K2073" s="2">
-        <v>1815920</v>
+        <v>1081428</v>
       </c>
     </row>
     <row r="2074" spans="1:11">
@@ -73312,34 +73312,34 @@
         <v>2020</v>
       </c>
       <c r="B2074" s="3" t="s">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="C2074" s="2">
-        <v>720312</v>
+        <v>2581194</v>
       </c>
       <c r="D2074" s="2">
-        <v>1012</v>
+        <v>275402</v>
       </c>
       <c r="E2074" s="2">
-        <v>32000</v>
+        <v>0</v>
       </c>
       <c r="F2074" s="2">
-        <v>0</v>
+        <v>46550</v>
       </c>
       <c r="G2074" s="2">
-        <v>30500</v>
+        <v>15125</v>
       </c>
       <c r="H2074" s="2">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="I2074" s="2">
         <v>0</v>
       </c>
       <c r="J2074" s="2">
-        <v>7989</v>
+        <v>46548</v>
       </c>
       <c r="K2074" s="2">
-        <v>806813</v>
+        <v>2986819</v>
       </c>
     </row>
     <row r="2075" spans="1:11">
@@ -73347,34 +73347,34 @@
         <v>2020</v>
       </c>
       <c r="B2075" s="3" t="s">
-        <v>91</v>
+        <v>47</v>
       </c>
       <c r="C2075" s="2">
-        <v>430865</v>
+        <v>552864</v>
       </c>
       <c r="D2075" s="2">
-        <v>239999</v>
+        <v>445807</v>
       </c>
       <c r="E2075" s="2">
-        <v>11577</v>
+        <v>178898</v>
       </c>
       <c r="F2075" s="2">
-        <v>300</v>
+        <v>5982</v>
       </c>
       <c r="G2075" s="2">
-        <v>24900</v>
+        <v>6930</v>
       </c>
       <c r="H2075" s="2">
         <v>0</v>
       </c>
       <c r="I2075" s="2">
-        <v>0</v>
+        <v>2900</v>
       </c>
       <c r="J2075" s="2">
-        <v>7032</v>
+        <v>2048</v>
       </c>
       <c r="K2075" s="2">
-        <v>714673</v>
+        <v>1195429</v>
       </c>
     </row>
     <row r="2076" spans="1:11">
@@ -73382,34 +73382,34 @@
         <v>2020</v>
       </c>
       <c r="B2076" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C2076" s="2">
-        <v>393333</v>
+        <v>274358</v>
       </c>
       <c r="D2076" s="2">
-        <v>70424</v>
+        <v>42490</v>
       </c>
       <c r="E2076" s="2">
-        <v>14099</v>
+        <v>34857</v>
       </c>
       <c r="F2076" s="2">
-        <v>9700</v>
+        <v>0</v>
       </c>
       <c r="G2076" s="2">
-        <v>3400</v>
+        <v>13410</v>
       </c>
       <c r="H2076" s="2">
-        <v>1706</v>
+        <v>1750</v>
       </c>
       <c r="I2076" s="2">
         <v>0</v>
       </c>
       <c r="J2076" s="2">
-        <v>9507</v>
+        <v>23090</v>
       </c>
       <c r="K2076" s="2">
-        <v>502169</v>
+        <v>389955</v>
       </c>
     </row>
     <row r="2077" spans="1:11">
@@ -73417,34 +73417,34 @@
         <v>2020</v>
       </c>
       <c r="B2077" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C2077" s="2">
-        <v>805978</v>
+        <v>1164914</v>
       </c>
       <c r="D2077" s="2">
-        <v>545795</v>
+        <v>259194</v>
       </c>
       <c r="E2077" s="2">
-        <v>15258</v>
+        <v>94631</v>
       </c>
       <c r="F2077" s="2">
-        <v>12000</v>
+        <v>102500</v>
       </c>
       <c r="G2077" s="2">
-        <v>36500</v>
+        <v>3200</v>
       </c>
       <c r="H2077" s="2">
         <v>0</v>
       </c>
       <c r="I2077" s="2">
-        <v>0</v>
+        <v>114658</v>
       </c>
       <c r="J2077" s="2">
-        <v>0</v>
+        <v>76823</v>
       </c>
       <c r="K2077" s="2">
-        <v>1415531</v>
+        <v>1815920</v>
       </c>
     </row>
     <row r="2078" spans="1:11">
@@ -73452,34 +73452,34 @@
         <v>2020</v>
       </c>
       <c r="B2078" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C2078" s="2">
-        <v>194359</v>
+        <v>720312</v>
       </c>
       <c r="D2078" s="2">
-        <v>22383</v>
+        <v>1012</v>
       </c>
       <c r="E2078" s="2">
-        <v>110598</v>
+        <v>32000</v>
       </c>
       <c r="F2078" s="2">
-        <v>6600</v>
+        <v>0</v>
       </c>
       <c r="G2078" s="2">
-        <v>12428</v>
+        <v>30500</v>
       </c>
       <c r="H2078" s="2">
-        <v>1575</v>
+        <v>15000</v>
       </c>
       <c r="I2078" s="2">
         <v>0</v>
       </c>
       <c r="J2078" s="2">
-        <v>0</v>
+        <v>7989</v>
       </c>
       <c r="K2078" s="2">
-        <v>347943</v>
+        <v>806813</v>
       </c>
     </row>
     <row r="2079" spans="1:11">
@@ -73487,34 +73487,34 @@
         <v>2020</v>
       </c>
       <c r="B2079" s="3" t="s">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="C2079" s="2">
-        <v>4520689</v>
+        <v>430865</v>
       </c>
       <c r="D2079" s="2">
-        <v>1155800</v>
+        <v>239999</v>
       </c>
       <c r="E2079" s="2">
-        <v>71211</v>
+        <v>11577</v>
       </c>
       <c r="F2079" s="2">
-        <v>841927</v>
+        <v>300</v>
       </c>
       <c r="G2079" s="2">
-        <v>61875</v>
+        <v>24900</v>
       </c>
       <c r="H2079" s="2">
-        <v>4888</v>
+        <v>0</v>
       </c>
       <c r="I2079" s="2">
-        <v>221285</v>
+        <v>0</v>
       </c>
       <c r="J2079" s="2">
-        <v>135349</v>
+        <v>7032</v>
       </c>
       <c r="K2079" s="2">
-        <v>7013024</v>
+        <v>714673</v>
       </c>
     </row>
     <row r="2080" spans="1:11">
@@ -73522,34 +73522,34 @@
         <v>2020</v>
       </c>
       <c r="B2080" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C2080" s="2">
-        <v>144078</v>
+        <v>393333</v>
       </c>
       <c r="D2080" s="2">
-        <v>84603</v>
+        <v>70424</v>
       </c>
       <c r="E2080" s="2">
-        <v>0</v>
+        <v>14099</v>
       </c>
       <c r="F2080" s="2">
-        <v>300</v>
+        <v>9700</v>
       </c>
       <c r="G2080" s="2">
-        <v>35150</v>
+        <v>3400</v>
       </c>
       <c r="H2080" s="2">
-        <v>0</v>
+        <v>1706</v>
       </c>
       <c r="I2080" s="2">
         <v>0</v>
       </c>
       <c r="J2080" s="2">
-        <v>34887</v>
+        <v>9507</v>
       </c>
       <c r="K2080" s="2">
-        <v>299018</v>
+        <v>502169</v>
       </c>
     </row>
     <row r="2081" spans="1:11">
@@ -73557,22 +73557,22 @@
         <v>2020</v>
       </c>
       <c r="B2081" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C2081" s="2">
-        <v>1403168</v>
+        <v>805978</v>
       </c>
       <c r="D2081" s="2">
-        <v>976038</v>
+        <v>545795</v>
       </c>
       <c r="E2081" s="2">
-        <v>267439</v>
+        <v>15258</v>
       </c>
       <c r="F2081" s="2">
-        <v>35000</v>
+        <v>12000</v>
       </c>
       <c r="G2081" s="2">
-        <v>44523</v>
+        <v>36500</v>
       </c>
       <c r="H2081" s="2">
         <v>0</v>
@@ -73584,7 +73584,7 @@
         <v>0</v>
       </c>
       <c r="K2081" s="2">
-        <v>2726168</v>
+        <v>1415531</v>
       </c>
     </row>
     <row r="2082" spans="1:11">
@@ -73592,34 +73592,34 @@
         <v>2020</v>
       </c>
       <c r="B2082" s="3" t="s">
-        <v>58</v>
+        <v>93</v>
       </c>
       <c r="C2082" s="2">
-        <v>1818370</v>
+        <v>194359</v>
       </c>
       <c r="D2082" s="2">
-        <v>291915</v>
+        <v>22383</v>
       </c>
       <c r="E2082" s="2">
-        <v>183600</v>
+        <v>110598</v>
       </c>
       <c r="F2082" s="2">
-        <v>4400</v>
+        <v>6600</v>
       </c>
       <c r="G2082" s="2">
-        <v>148147</v>
+        <v>12428</v>
       </c>
       <c r="H2082" s="2">
-        <v>0</v>
+        <v>1575</v>
       </c>
       <c r="I2082" s="2">
-        <v>44110</v>
+        <v>0</v>
       </c>
       <c r="J2082" s="2">
-        <v>51463</v>
+        <v>0</v>
       </c>
       <c r="K2082" s="2">
-        <v>2542005</v>
+        <v>347943</v>
       </c>
     </row>
     <row r="2083" spans="1:11">
@@ -73627,34 +73627,34 @@
         <v>2020</v>
       </c>
       <c r="B2083" s="3" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="C2083" s="2">
-        <v>4598492</v>
+        <v>4520689</v>
       </c>
       <c r="D2083" s="2">
-        <v>6235</v>
+        <v>1155800</v>
       </c>
       <c r="E2083" s="2">
-        <v>140302</v>
+        <v>71211</v>
       </c>
       <c r="F2083" s="2">
-        <v>112500</v>
+        <v>841927</v>
       </c>
       <c r="G2083" s="2">
-        <v>55800</v>
+        <v>61875</v>
       </c>
       <c r="H2083" s="2">
-        <v>0</v>
+        <v>4888</v>
       </c>
       <c r="I2083" s="2">
-        <v>25000</v>
+        <v>221285</v>
       </c>
       <c r="J2083" s="2">
-        <v>59</v>
+        <v>135349</v>
       </c>
       <c r="K2083" s="2">
-        <v>4938388</v>
+        <v>7013024</v>
       </c>
     </row>
     <row r="2084" spans="1:11">
@@ -73662,34 +73662,34 @@
         <v>2020</v>
       </c>
       <c r="B2084" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C2084" s="2">
-        <v>768592</v>
+        <v>144078</v>
       </c>
       <c r="D2084" s="2">
-        <v>115381</v>
+        <v>84603</v>
       </c>
       <c r="E2084" s="2">
-        <v>35439</v>
+        <v>0</v>
       </c>
       <c r="F2084" s="2">
-        <v>16800</v>
+        <v>300</v>
       </c>
       <c r="G2084" s="2">
-        <v>16050</v>
+        <v>35150</v>
       </c>
       <c r="H2084" s="2">
         <v>0</v>
       </c>
       <c r="I2084" s="2">
-        <v>17000</v>
+        <v>0</v>
       </c>
       <c r="J2084" s="2">
-        <v>17000</v>
+        <v>34887</v>
       </c>
       <c r="K2084" s="2">
-        <v>986262</v>
+        <v>299018</v>
       </c>
     </row>
     <row r="2085" spans="1:11">
@@ -73697,34 +73697,34 @@
         <v>2020</v>
       </c>
       <c r="B2085" s="3" t="s">
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="C2085" s="2">
-        <v>913161</v>
+        <v>1403168</v>
       </c>
       <c r="D2085" s="2">
-        <v>237290</v>
+        <v>976038</v>
       </c>
       <c r="E2085" s="2">
-        <v>272710</v>
+        <v>267439</v>
       </c>
       <c r="F2085" s="2">
-        <v>0</v>
+        <v>35000</v>
       </c>
       <c r="G2085" s="2">
-        <v>31600</v>
+        <v>44523</v>
       </c>
       <c r="H2085" s="2">
         <v>0</v>
       </c>
       <c r="I2085" s="2">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2085" s="2">
-        <v>387</v>
+        <v>0</v>
       </c>
       <c r="K2085" s="2">
-        <v>1465148</v>
+        <v>2726168</v>
       </c>
     </row>
     <row r="2086" spans="1:11">
@@ -73732,34 +73732,34 @@
         <v>2020</v>
       </c>
       <c r="B2086" s="3" t="s">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="C2086" s="2">
-        <v>734831</v>
+        <v>1818370</v>
       </c>
       <c r="D2086" s="2">
-        <v>9015</v>
+        <v>291915</v>
       </c>
       <c r="E2086" s="2">
-        <v>129717</v>
+        <v>183600</v>
       </c>
       <c r="F2086" s="2">
-        <v>0</v>
+        <v>4400</v>
       </c>
       <c r="G2086" s="2">
-        <v>118850</v>
+        <v>148147</v>
       </c>
       <c r="H2086" s="2">
         <v>0</v>
       </c>
       <c r="I2086" s="2">
-        <v>0</v>
+        <v>44110</v>
       </c>
       <c r="J2086" s="2">
-        <v>0</v>
+        <v>51463</v>
       </c>
       <c r="K2086" s="2">
-        <v>992413</v>
+        <v>2542005</v>
       </c>
     </row>
     <row r="2087" spans="1:11">
@@ -73767,34 +73767,34 @@
         <v>2020</v>
       </c>
       <c r="B2087" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2087" s="2">
+        <v>4598492</v>
+      </c>
+      <c r="D2087" s="2">
+        <v>6235</v>
+      </c>
+      <c r="E2087" s="2">
+        <v>140302</v>
+      </c>
+      <c r="F2087" s="2">
+        <v>112500</v>
+      </c>
+      <c r="G2087" s="2">
+        <v>55800</v>
+      </c>
+      <c r="H2087" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2087" s="2">
+        <v>25000</v>
+      </c>
+      <c r="J2087" s="2">
         <v>59</v>
       </c>
-      <c r="C2087" s="2">
-        <v>1476035</v>
-      </c>
-      <c r="D2087" s="2">
-        <v>275489</v>
-      </c>
-      <c r="E2087" s="2">
-        <v>231344</v>
-      </c>
-      <c r="F2087" s="2">
-        <v>244964</v>
-      </c>
-      <c r="G2087" s="2">
-        <v>20680</v>
-      </c>
-      <c r="H2087" s="2">
-        <v>0</v>
-      </c>
-      <c r="I2087" s="2">
-        <v>110451</v>
-      </c>
-      <c r="J2087" s="2">
-        <v>114476</v>
-      </c>
       <c r="K2087" s="2">
-        <v>2473439</v>
+        <v>4938388</v>
       </c>
     </row>
     <row r="2088" spans="1:11">
@@ -73802,34 +73802,34 @@
         <v>2020</v>
       </c>
       <c r="B2088" s="3" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="C2088" s="2">
-        <v>1626046</v>
+        <v>768592</v>
       </c>
       <c r="D2088" s="2">
-        <v>483549</v>
+        <v>115381</v>
       </c>
       <c r="E2088" s="2">
-        <v>105616</v>
+        <v>35439</v>
       </c>
       <c r="F2088" s="2">
-        <v>142511</v>
+        <v>16800</v>
       </c>
       <c r="G2088" s="2">
-        <v>15472</v>
+        <v>16050</v>
       </c>
       <c r="H2088" s="2">
-        <v>2824</v>
+        <v>0</v>
       </c>
       <c r="I2088" s="2">
-        <v>7152</v>
+        <v>17000</v>
       </c>
       <c r="J2088" s="2">
-        <v>30427</v>
+        <v>17000</v>
       </c>
       <c r="K2088" s="2">
-        <v>2413597</v>
+        <v>986262</v>
       </c>
     </row>
     <row r="2089" spans="1:11">
@@ -73837,34 +73837,34 @@
         <v>2020</v>
       </c>
       <c r="B2089" s="3" t="s">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="C2089" s="2">
-        <v>1192350</v>
+        <v>913161</v>
       </c>
       <c r="D2089" s="2">
-        <v>339215</v>
+        <v>237290</v>
       </c>
       <c r="E2089" s="2">
-        <v>191593</v>
+        <v>272710</v>
       </c>
       <c r="F2089" s="2">
-        <v>176000</v>
+        <v>0</v>
       </c>
       <c r="G2089" s="2">
-        <v>51000</v>
+        <v>31600</v>
       </c>
       <c r="H2089" s="2">
         <v>0</v>
       </c>
       <c r="I2089" s="2">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="J2089" s="2">
-        <v>109622</v>
+        <v>387</v>
       </c>
       <c r="K2089" s="2">
-        <v>2059780</v>
+        <v>1465148</v>
       </c>
     </row>
     <row r="2090" spans="1:11">
@@ -73872,22 +73872,22 @@
         <v>2020</v>
       </c>
       <c r="B2090" s="3" t="s">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="C2090" s="2">
-        <v>1090358</v>
+        <v>734831</v>
       </c>
       <c r="D2090" s="2">
-        <v>314018</v>
+        <v>9015</v>
       </c>
       <c r="E2090" s="2">
-        <v>132231</v>
+        <v>129717</v>
       </c>
       <c r="F2090" s="2">
-        <v>60600</v>
+        <v>0</v>
       </c>
       <c r="G2090" s="2">
-        <v>23000</v>
+        <v>118850</v>
       </c>
       <c r="H2090" s="2">
         <v>0</v>
@@ -73896,10 +73896,10 @@
         <v>0</v>
       </c>
       <c r="J2090" s="2">
-        <v>33742</v>
+        <v>0</v>
       </c>
       <c r="K2090" s="2">
-        <v>1653949</v>
+        <v>992413</v>
       </c>
     </row>
     <row r="2091" spans="1:11">
@@ -73907,34 +73907,34 @@
         <v>2020</v>
       </c>
       <c r="B2091" s="3" t="s">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="C2091" s="2">
-        <v>700961</v>
+        <v>1476035</v>
       </c>
       <c r="D2091" s="2">
-        <v>164947</v>
+        <v>275489</v>
       </c>
       <c r="E2091" s="2">
-        <v>58243</v>
+        <v>231344</v>
       </c>
       <c r="F2091" s="2">
-        <v>23280</v>
+        <v>244964</v>
       </c>
       <c r="G2091" s="2">
-        <v>7720</v>
+        <v>20680</v>
       </c>
       <c r="H2091" s="2">
         <v>0</v>
       </c>
       <c r="I2091" s="2">
-        <v>47771</v>
+        <v>110451</v>
       </c>
       <c r="J2091" s="2">
-        <v>21000</v>
+        <v>114476</v>
       </c>
       <c r="K2091" s="2">
-        <v>1023922</v>
+        <v>2473439</v>
       </c>
     </row>
     <row r="2092" spans="1:11">
@@ -73942,34 +73942,34 @@
         <v>2020</v>
       </c>
       <c r="B2092" s="3" t="s">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="C2092" s="2">
-        <v>366842</v>
+        <v>1626046</v>
       </c>
       <c r="D2092" s="2">
-        <v>36715</v>
+        <v>483549</v>
       </c>
       <c r="E2092" s="2">
-        <v>157649</v>
+        <v>105616</v>
       </c>
       <c r="F2092" s="2">
-        <v>3296</v>
+        <v>142511</v>
       </c>
       <c r="G2092" s="2">
-        <v>26460</v>
+        <v>15472</v>
       </c>
       <c r="H2092" s="2">
-        <v>3296</v>
+        <v>2824</v>
       </c>
       <c r="I2092" s="2">
-        <v>0</v>
+        <v>7152</v>
       </c>
       <c r="J2092" s="2">
-        <v>34734</v>
+        <v>30427</v>
       </c>
       <c r="K2092" s="2">
-        <v>628992</v>
+        <v>2413597</v>
       </c>
     </row>
     <row r="2093" spans="1:11">
@@ -73977,34 +73977,34 @@
         <v>2020</v>
       </c>
       <c r="B2093" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C2093" s="2">
-        <v>1170119</v>
+        <v>1192350</v>
       </c>
       <c r="D2093" s="2">
-        <v>7880</v>
+        <v>339215</v>
       </c>
       <c r="E2093" s="2">
-        <v>192429</v>
+        <v>191593</v>
       </c>
       <c r="F2093" s="2">
-        <v>0</v>
+        <v>176000</v>
       </c>
       <c r="G2093" s="2">
-        <v>82586</v>
+        <v>51000</v>
       </c>
       <c r="H2093" s="2">
-        <v>55000</v>
+        <v>0</v>
       </c>
       <c r="I2093" s="2">
         <v>0</v>
       </c>
       <c r="J2093" s="2">
-        <v>0</v>
+        <v>109622</v>
       </c>
       <c r="K2093" s="2">
-        <v>1508014</v>
+        <v>2059780</v>
       </c>
     </row>
     <row r="2094" spans="1:11">
@@ -74012,34 +74012,34 @@
         <v>2020</v>
       </c>
       <c r="B2094" s="3" t="s">
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="C2094" s="2">
-        <v>324837</v>
+        <v>1090358</v>
       </c>
       <c r="D2094" s="2">
-        <v>20426</v>
+        <v>314018</v>
       </c>
       <c r="E2094" s="2">
-        <v>118825</v>
+        <v>132231</v>
       </c>
       <c r="F2094" s="2">
-        <v>15000</v>
+        <v>60600</v>
       </c>
       <c r="G2094" s="2">
-        <v>800</v>
+        <v>23000</v>
       </c>
       <c r="H2094" s="2">
         <v>0</v>
       </c>
       <c r="I2094" s="2">
-        <v>48115</v>
+        <v>0</v>
       </c>
       <c r="J2094" s="2">
-        <v>12123</v>
+        <v>33742</v>
       </c>
       <c r="K2094" s="2">
-        <v>540126</v>
+        <v>1653949</v>
       </c>
     </row>
     <row r="2095" spans="1:11">
@@ -74047,34 +74047,34 @@
         <v>2020</v>
       </c>
       <c r="B2095" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C2095" s="2">
-        <v>549720</v>
+        <v>700961</v>
       </c>
       <c r="D2095" s="2">
-        <v>95047</v>
+        <v>164947</v>
       </c>
       <c r="E2095" s="2">
-        <v>30403</v>
+        <v>58243</v>
       </c>
       <c r="F2095" s="2">
-        <v>22000</v>
+        <v>23280</v>
       </c>
       <c r="G2095" s="2">
-        <v>3500</v>
+        <v>7720</v>
       </c>
       <c r="H2095" s="2">
         <v>0</v>
       </c>
       <c r="I2095" s="2">
-        <v>0</v>
+        <v>47771</v>
       </c>
       <c r="J2095" s="2">
-        <v>0</v>
+        <v>21000</v>
       </c>
       <c r="K2095" s="2">
-        <v>700670</v>
+        <v>1023922</v>
       </c>
     </row>
     <row r="2096" spans="1:11">
@@ -74082,34 +74082,34 @@
         <v>2020</v>
       </c>
       <c r="B2096" s="3" t="s">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="C2096" s="2">
-        <v>863902</v>
+        <v>366842</v>
       </c>
       <c r="D2096" s="2">
-        <v>444041</v>
+        <v>36715</v>
       </c>
       <c r="E2096" s="2">
-        <v>179059</v>
+        <v>157649</v>
       </c>
       <c r="F2096" s="2">
-        <v>0</v>
+        <v>3296</v>
       </c>
       <c r="G2096" s="2">
-        <v>48527</v>
+        <v>26460</v>
       </c>
       <c r="H2096" s="2">
-        <v>0</v>
+        <v>3296</v>
       </c>
       <c r="I2096" s="2">
         <v>0</v>
       </c>
       <c r="J2096" s="2">
-        <v>5328</v>
+        <v>34734</v>
       </c>
       <c r="K2096" s="2">
-        <v>1540857</v>
+        <v>628992</v>
       </c>
     </row>
     <row r="2097" spans="1:11">
@@ -74117,34 +74117,34 @@
         <v>2020</v>
       </c>
       <c r="B2097" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C2097" s="2">
-        <v>1488961</v>
+        <v>1170119</v>
       </c>
       <c r="D2097" s="2">
-        <v>329914</v>
+        <v>7880</v>
       </c>
       <c r="E2097" s="2">
-        <v>162486</v>
+        <v>192429</v>
       </c>
       <c r="F2097" s="2">
-        <v>25500</v>
+        <v>0</v>
       </c>
       <c r="G2097" s="2">
-        <v>20451</v>
+        <v>82586</v>
       </c>
       <c r="H2097" s="2">
-        <v>0</v>
+        <v>55000</v>
       </c>
       <c r="I2097" s="2">
         <v>0</v>
       </c>
       <c r="J2097" s="2">
-        <v>8028</v>
+        <v>0</v>
       </c>
       <c r="K2097" s="2">
-        <v>2035340</v>
+        <v>1508014</v>
       </c>
     </row>
     <row r="2098" spans="1:11">
@@ -74152,34 +74152,34 @@
         <v>2020</v>
       </c>
       <c r="B2098" s="3" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C2098" s="2">
-        <v>715362</v>
+        <v>324837</v>
       </c>
       <c r="D2098" s="2">
-        <v>25983</v>
+        <v>20426</v>
       </c>
       <c r="E2098" s="2">
-        <v>356347</v>
+        <v>118825</v>
       </c>
       <c r="F2098" s="2">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="G2098" s="2">
-        <v>16800</v>
+        <v>800</v>
       </c>
       <c r="H2098" s="2">
         <v>0</v>
       </c>
       <c r="I2098" s="2">
-        <v>62000</v>
+        <v>48115</v>
       </c>
       <c r="J2098" s="2">
-        <v>0</v>
+        <v>12123</v>
       </c>
       <c r="K2098" s="2">
-        <v>1176492</v>
+        <v>540126</v>
       </c>
     </row>
     <row r="2099" spans="1:11">
@@ -74187,22 +74187,22 @@
         <v>2020</v>
       </c>
       <c r="B2099" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C2099" s="2">
-        <v>324604</v>
+        <v>549720</v>
       </c>
       <c r="D2099" s="2">
-        <v>225717</v>
+        <v>95047</v>
       </c>
       <c r="E2099" s="2">
-        <v>13867</v>
+        <v>30403</v>
       </c>
       <c r="F2099" s="2">
-        <v>0</v>
+        <v>22000</v>
       </c>
       <c r="G2099" s="2">
-        <v>5100</v>
+        <v>3500</v>
       </c>
       <c r="H2099" s="2">
         <v>0</v>
@@ -74211,10 +74211,10 @@
         <v>0</v>
       </c>
       <c r="J2099" s="2">
-        <v>3701</v>
+        <v>0</v>
       </c>
       <c r="K2099" s="2">
-        <v>572989</v>
+        <v>700670</v>
       </c>
     </row>
     <row r="2100" spans="1:11">
@@ -74222,34 +74222,34 @@
         <v>2020</v>
       </c>
       <c r="B2100" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C2100" s="2">
-        <v>913882</v>
+        <v>863902</v>
       </c>
       <c r="D2100" s="2">
-        <v>108321</v>
+        <v>444041</v>
       </c>
       <c r="E2100" s="2">
-        <v>119001</v>
+        <v>179059</v>
       </c>
       <c r="F2100" s="2">
-        <v>115730</v>
+        <v>0</v>
       </c>
       <c r="G2100" s="2">
-        <v>2900</v>
+        <v>48527</v>
       </c>
       <c r="H2100" s="2">
         <v>0</v>
       </c>
       <c r="I2100" s="2">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J2100" s="2">
-        <v>0</v>
+        <v>5328</v>
       </c>
       <c r="K2100" s="2">
-        <v>1309834</v>
+        <v>1540857</v>
       </c>
     </row>
     <row r="2101" spans="1:11">
@@ -74257,22 +74257,22 @@
         <v>2020</v>
       </c>
       <c r="B2101" s="3" t="s">
-        <v>105</v>
+        <v>67</v>
       </c>
       <c r="C2101" s="2">
-        <v>656431</v>
+        <v>1488961</v>
       </c>
       <c r="D2101" s="2">
-        <v>195186</v>
+        <v>329914</v>
       </c>
       <c r="E2101" s="2">
-        <v>99000</v>
+        <v>162486</v>
       </c>
       <c r="F2101" s="2">
-        <v>0</v>
+        <v>25500</v>
       </c>
       <c r="G2101" s="2">
-        <v>25000</v>
+        <v>20451</v>
       </c>
       <c r="H2101" s="2">
         <v>0</v>
@@ -74281,10 +74281,10 @@
         <v>0</v>
       </c>
       <c r="J2101" s="2">
-        <v>0</v>
+        <v>8028</v>
       </c>
       <c r="K2101" s="2">
-        <v>975617</v>
+        <v>2035340</v>
       </c>
     </row>
     <row r="2102" spans="1:11">
@@ -74292,34 +74292,34 @@
         <v>2020</v>
       </c>
       <c r="B2102" s="3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C2102" s="2">
-        <v>523695</v>
+        <v>715362</v>
       </c>
       <c r="D2102" s="2">
-        <v>240102</v>
+        <v>25983</v>
       </c>
       <c r="E2102" s="2">
-        <v>73714</v>
+        <v>356347</v>
       </c>
       <c r="F2102" s="2">
         <v>0</v>
       </c>
       <c r="G2102" s="2">
-        <v>11176</v>
+        <v>16800</v>
       </c>
       <c r="H2102" s="2">
         <v>0</v>
       </c>
       <c r="I2102" s="2">
-        <v>0</v>
+        <v>62000</v>
       </c>
       <c r="J2102" s="2">
-        <v>17810</v>
+        <v>0</v>
       </c>
       <c r="K2102" s="2">
-        <v>866497</v>
+        <v>1176492</v>
       </c>
     </row>
     <row r="2103" spans="1:11">
@@ -74327,34 +74327,34 @@
         <v>2020</v>
       </c>
       <c r="B2103" s="3" t="s">
-        <v>71</v>
+        <v>104</v>
       </c>
       <c r="C2103" s="2">
-        <v>1810331</v>
+        <v>324604</v>
       </c>
       <c r="D2103" s="2">
-        <v>204940</v>
+        <v>225717</v>
       </c>
       <c r="E2103" s="2">
-        <v>122089</v>
+        <v>13867</v>
       </c>
       <c r="F2103" s="2">
         <v>0</v>
       </c>
       <c r="G2103" s="2">
-        <v>7500</v>
+        <v>5100</v>
       </c>
       <c r="H2103" s="2">
         <v>0</v>
       </c>
       <c r="I2103" s="2">
-        <v>150000</v>
+        <v>0</v>
       </c>
       <c r="J2103" s="2">
-        <v>65886</v>
+        <v>3701</v>
       </c>
       <c r="K2103" s="2">
-        <v>2360746</v>
+        <v>572989</v>
       </c>
     </row>
     <row r="2104" spans="1:11">
@@ -74362,34 +74362,34 @@
         <v>2020</v>
       </c>
       <c r="B2104" s="3" t="s">
-        <v>109</v>
+        <v>69</v>
       </c>
       <c r="C2104" s="2">
-        <v>273328</v>
+        <v>913882</v>
       </c>
       <c r="D2104" s="2">
-        <v>1977</v>
+        <v>108321</v>
       </c>
       <c r="E2104" s="2">
-        <v>186657</v>
+        <v>119001</v>
       </c>
       <c r="F2104" s="2">
-        <v>34950</v>
+        <v>115730</v>
       </c>
       <c r="G2104" s="2">
-        <v>23700</v>
+        <v>2900</v>
       </c>
       <c r="H2104" s="2">
         <v>0</v>
       </c>
       <c r="I2104" s="2">
-        <v>3680</v>
+        <v>50000</v>
       </c>
       <c r="J2104" s="2">
-        <v>50176</v>
+        <v>0</v>
       </c>
       <c r="K2104" s="2">
-        <v>574468</v>
+        <v>1309834</v>
       </c>
     </row>
     <row r="2105" spans="1:11">
@@ -74397,22 +74397,22 @@
         <v>2020</v>
       </c>
       <c r="B2105" s="3" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C2105" s="2">
-        <v>440259</v>
+        <v>656431</v>
       </c>
       <c r="D2105" s="2">
-        <v>5621</v>
+        <v>195186</v>
       </c>
       <c r="E2105" s="2">
-        <v>88889</v>
+        <v>99000</v>
       </c>
       <c r="F2105" s="2">
         <v>0</v>
       </c>
       <c r="G2105" s="2">
-        <v>51601</v>
+        <v>25000</v>
       </c>
       <c r="H2105" s="2">
         <v>0</v>
@@ -74421,10 +74421,10 @@
         <v>0</v>
       </c>
       <c r="J2105" s="2">
-        <v>5564</v>
+        <v>0</v>
       </c>
       <c r="K2105" s="2">
-        <v>591934</v>
+        <v>975617</v>
       </c>
     </row>
     <row r="2106" spans="1:11">
@@ -74432,34 +74432,34 @@
         <v>2020</v>
       </c>
       <c r="B2106" s="3" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C2106" s="2">
-        <v>1252360</v>
+        <v>523695</v>
       </c>
       <c r="D2106" s="2">
-        <v>38578</v>
+        <v>240102</v>
       </c>
       <c r="E2106" s="2">
-        <v>11100</v>
+        <v>73714</v>
       </c>
       <c r="F2106" s="2">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G2106" s="2">
-        <v>16475</v>
+        <v>11176</v>
       </c>
       <c r="H2106" s="2">
         <v>0</v>
       </c>
       <c r="I2106" s="2">
-        <v>79500</v>
+        <v>0</v>
       </c>
       <c r="J2106" s="2">
-        <v>0</v>
+        <v>17810</v>
       </c>
       <c r="K2106" s="2">
-        <v>1403013</v>
+        <v>866497</v>
       </c>
     </row>
     <row r="2107" spans="1:11">
@@ -74467,34 +74467,34 @@
         <v>2020</v>
       </c>
       <c r="B2107" s="3" t="s">
-        <v>112</v>
+        <v>71</v>
       </c>
       <c r="C2107" s="2">
-        <v>923650</v>
+        <v>1810331</v>
       </c>
       <c r="D2107" s="2">
-        <v>42383</v>
+        <v>204940</v>
       </c>
       <c r="E2107" s="2">
-        <v>0</v>
+        <v>122089</v>
       </c>
       <c r="F2107" s="2">
         <v>0</v>
       </c>
       <c r="G2107" s="2">
-        <v>500</v>
+        <v>7500</v>
       </c>
       <c r="H2107" s="2">
         <v>0</v>
       </c>
       <c r="I2107" s="2">
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="J2107" s="2">
-        <v>38240</v>
+        <v>65886</v>
       </c>
       <c r="K2107" s="2">
-        <v>1004773</v>
+        <v>2360746</v>
       </c>
     </row>
     <row r="2108" spans="1:11">
@@ -74502,33 +74502,173 @@
         <v>2020</v>
       </c>
       <c r="B2108" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2108" s="2">
+        <v>273328</v>
+      </c>
+      <c r="D2108" s="2">
+        <v>1977</v>
+      </c>
+      <c r="E2108" s="2">
+        <v>186657</v>
+      </c>
+      <c r="F2108" s="2">
+        <v>34950</v>
+      </c>
+      <c r="G2108" s="2">
+        <v>23700</v>
+      </c>
+      <c r="H2108" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2108" s="2">
+        <v>3680</v>
+      </c>
+      <c r="J2108" s="2">
+        <v>50176</v>
+      </c>
+      <c r="K2108" s="2">
+        <v>574468</v>
+      </c>
+    </row>
+    <row r="2109" spans="1:11">
+      <c r="A2109" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B2109" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2109" s="2">
+        <v>440259</v>
+      </c>
+      <c r="D2109" s="2">
+        <v>5621</v>
+      </c>
+      <c r="E2109" s="2">
+        <v>88889</v>
+      </c>
+      <c r="F2109" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2109" s="2">
+        <v>51601</v>
+      </c>
+      <c r="H2109" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2109" s="2">
+        <v>0</v>
+      </c>
+      <c r="J2109" s="2">
+        <v>5564</v>
+      </c>
+      <c r="K2109" s="2">
+        <v>591934</v>
+      </c>
+    </row>
+    <row r="2110" spans="1:11">
+      <c r="A2110" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B2110" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2110" s="2">
+        <v>1252360</v>
+      </c>
+      <c r="D2110" s="2">
+        <v>38578</v>
+      </c>
+      <c r="E2110" s="2">
+        <v>11100</v>
+      </c>
+      <c r="F2110" s="2">
+        <v>5000</v>
+      </c>
+      <c r="G2110" s="2">
+        <v>16475</v>
+      </c>
+      <c r="H2110" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2110" s="2">
+        <v>79500</v>
+      </c>
+      <c r="J2110" s="2">
+        <v>0</v>
+      </c>
+      <c r="K2110" s="2">
+        <v>1403013</v>
+      </c>
+    </row>
+    <row r="2111" spans="1:11">
+      <c r="A2111" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B2111" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2111" s="2">
+        <v>923650</v>
+      </c>
+      <c r="D2111" s="2">
+        <v>42383</v>
+      </c>
+      <c r="E2111" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2111" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2111" s="2">
+        <v>500</v>
+      </c>
+      <c r="H2111" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2111" s="2">
+        <v>0</v>
+      </c>
+      <c r="J2111" s="2">
+        <v>38240</v>
+      </c>
+      <c r="K2111" s="2">
+        <v>1004773</v>
+      </c>
+    </row>
+    <row r="2112" spans="1:11">
+      <c r="A2112" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B2112" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C2108" s="2">
+      <c r="C2112" s="2">
         <v>307946</v>
       </c>
-      <c r="D2108" s="2">
+      <c r="D2112" s="2">
         <v>155058</v>
       </c>
-      <c r="E2108" s="2">
+      <c r="E2112" s="2">
         <v>4786</v>
       </c>
-      <c r="F2108" s="2">
-        <v>0</v>
-      </c>
-      <c r="G2108" s="2">
+      <c r="F2112" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2112" s="2">
         <v>8940</v>
       </c>
-      <c r="H2108" s="2">
-        <v>0</v>
-      </c>
-      <c r="I2108" s="2">
-        <v>0</v>
-      </c>
-      <c r="J2108" s="2">
-        <v>0</v>
-      </c>
-      <c r="K2108" s="2">
+      <c r="H2112" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2112" s="2">
+        <v>0</v>
+      </c>
+      <c r="J2112" s="2">
+        <v>0</v>
+      </c>
+      <c r="K2112" s="2">
         <v>476730</v>
       </c>
     </row>
